--- a/Data/Template/Customer Data Template.xlsx
+++ b/Data/Template/Customer Data Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\231691N_Tan_Hng_Wu\Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C082CE-3F80-4230-8211-66075AD00461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31CC727-EDEC-4605-9B00-A6201EC7D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{E57A2698-888E-474E-87E1-10DBC1B15C6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" xr2:uid="{E57A2698-888E-474E-87E1-10DBC1B15C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,28 +442,28 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
